--- a/R_C14_DADA2/phyloseq/paper_petB_primers/figures_petb compare_2.0/filt_subclade_percent_wide_2.0.xlsx
+++ b/R_C14_DADA2/phyloseq/paper_petB_primers/figures_petb compare_2.0/filt_subclade_percent_wide_2.0.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_DADA2/phyloseq/paper_petB_primers/figures_petb compare_2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1517D5C4-53CB-CA4C-B8BE-A3E8FCB5F07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC38E3C-6988-8A4C-881A-69194EDE5152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39860" yWindow="460" windowWidth="24140" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="57">
   <si>
     <t>water_mass</t>
   </si>
@@ -166,12 +167,51 @@
   <si>
     <t>ST-Cycle_4</t>
   </si>
+  <si>
+    <t>cycle_station</t>
+  </si>
+  <si>
+    <t>SA1_1</t>
+  </si>
+  <si>
+    <t>SA1_2</t>
+  </si>
+  <si>
+    <t>SA1_3</t>
+  </si>
+  <si>
+    <t>SA1_4</t>
+  </si>
+  <si>
+    <t>SA2_1</t>
+  </si>
+  <si>
+    <t>SA2_2</t>
+  </si>
+  <si>
+    <t>SA3_1</t>
+  </si>
+  <si>
+    <t>SA3_2</t>
+  </si>
+  <si>
+    <t>ST1_2</t>
+  </si>
+  <si>
+    <t>ST1_1</t>
+  </si>
+  <si>
+    <t>ST2_1</t>
+  </si>
+  <si>
+    <t>ST2_2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +223,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -554,10 +600,10 @@
   <dimension ref="A1:AK71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R60" sqref="R60"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -604,6 +650,4347 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>128</v>
+      </c>
+      <c r="D2">
+        <v>0.10983524712930599</v>
+      </c>
+      <c r="E2">
+        <v>4.2636045931103341</v>
+      </c>
+      <c r="F2">
+        <v>51.053419870194702</v>
+      </c>
+      <c r="G2">
+        <v>6.1208187718422371</v>
+      </c>
+      <c r="H2">
+        <v>38.412381427858207</v>
+      </c>
+      <c r="I2">
+        <v>3.9940089865202193E-2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>2.2292387872332329</v>
+      </c>
+      <c r="W2">
+        <v>45.414083006809449</v>
+      </c>
+      <c r="X2">
+        <v>6.1969794955681516</v>
+      </c>
+      <c r="Y2">
+        <v>45.64994103549283</v>
+      </c>
+      <c r="Z2">
+        <v>0.30813710198957661</v>
+      </c>
+      <c r="AB2">
+        <v>0.17118727888309809</v>
+      </c>
+      <c r="AD2">
+        <v>3.0433294023661881E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>129</v>
+      </c>
+      <c r="E3">
+        <v>4.0483806477409026</v>
+      </c>
+      <c r="F3">
+        <v>47.800879648140743</v>
+      </c>
+      <c r="G3">
+        <v>12.12514994002399</v>
+      </c>
+      <c r="H3">
+        <v>35.9656137544982</v>
+      </c>
+      <c r="I3">
+        <v>5.9976009596161527E-2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>3.6425227419784569</v>
+      </c>
+      <c r="W3">
+        <v>49.819206029003162</v>
+      </c>
+      <c r="X3">
+        <v>6.611350055189738</v>
+      </c>
+      <c r="Y3">
+        <v>38.724165493091768</v>
+      </c>
+      <c r="Z3">
+        <v>0.334944619952042</v>
+      </c>
+      <c r="AB3">
+        <v>0.74220682830282037</v>
+      </c>
+      <c r="AF3">
+        <v>2.2837133178548321E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>0.1027670993034674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>130</v>
+      </c>
+      <c r="E4">
+        <v>3.0136163396075291</v>
+      </c>
+      <c r="F4">
+        <v>51.651982378854619</v>
+      </c>
+      <c r="G4">
+        <v>6.0472567080496598</v>
+      </c>
+      <c r="H4">
+        <v>39.136964357228678</v>
+      </c>
+      <c r="I4">
+        <v>9.0108129755706853E-2</v>
+      </c>
+      <c r="J4">
+        <v>2.0024028834601519E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.001201441730076E-2</v>
+      </c>
+      <c r="L4">
+        <v>3.0036043251902279E-2</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1.681823370495795</v>
+      </c>
+      <c r="W4">
+        <v>47.292720977131772</v>
+      </c>
+      <c r="X4">
+        <v>6.5598721509836002</v>
+      </c>
+      <c r="Y4">
+        <v>43.677942239640807</v>
+      </c>
+      <c r="Z4">
+        <v>0.74578592899813556</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>2.2830181499942929E-2</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>1.9025151249952441E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>131</v>
+      </c>
+      <c r="E5">
+        <v>1.8681318681318679</v>
+      </c>
+      <c r="F5">
+        <v>49.780219780219781</v>
+      </c>
+      <c r="G5">
+        <v>4.685314685314685</v>
+      </c>
+      <c r="H5">
+        <v>43.586413586413578</v>
+      </c>
+      <c r="I5">
+        <v>2.9970029970029968E-2</v>
+      </c>
+      <c r="K5">
+        <v>4.9950049950049952E-2</v>
+      </c>
+      <c r="V5">
+        <v>3.4835520060848069</v>
+      </c>
+      <c r="W5">
+        <v>47.586993725042788</v>
+      </c>
+      <c r="X5">
+        <v>7.9672941623882876</v>
+      </c>
+      <c r="Y5">
+        <v>40.289028332382578</v>
+      </c>
+      <c r="Z5">
+        <v>0.48298155542878868</v>
+      </c>
+      <c r="AB5">
+        <v>0.1901502186727515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>132</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>51.261008807045641</v>
+      </c>
+      <c r="G6">
+        <v>9.1373098478783028</v>
+      </c>
+      <c r="H6">
+        <v>39.591673338670937</v>
+      </c>
+      <c r="I6">
+        <v>1.0008006405124101E-2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>3.390023969866454</v>
+      </c>
+      <c r="W6">
+        <v>53.072328120838563</v>
+      </c>
+      <c r="X6">
+        <v>7.7921089677738458</v>
+      </c>
+      <c r="Y6">
+        <v>35.669444127382718</v>
+      </c>
+      <c r="Z6">
+        <v>1.5218962827683291E-2</v>
+      </c>
+      <c r="AB6">
+        <v>6.087585131073317E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>133</v>
+      </c>
+      <c r="E7">
+        <v>2.3042394014962588</v>
+      </c>
+      <c r="F7">
+        <v>47.391521197007478</v>
+      </c>
+      <c r="G7">
+        <v>7.670822942643392</v>
+      </c>
+      <c r="H7">
+        <v>42.583541147132173</v>
+      </c>
+      <c r="I7">
+        <v>4.987531172069825E-2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>2.4156427131281619</v>
+      </c>
+      <c r="W7">
+        <v>50.671434549397041</v>
+      </c>
+      <c r="X7">
+        <v>8.4946931943546247</v>
+      </c>
+      <c r="Y7">
+        <v>38.106288279377637</v>
+      </c>
+      <c r="Z7">
+        <v>1.1412485258873209E-2</v>
+      </c>
+      <c r="AB7">
+        <v>0.30052877848366111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>134</v>
+      </c>
+      <c r="E8">
+        <v>6.0036021612967776</v>
+      </c>
+      <c r="F8">
+        <v>47.368421052631582</v>
+      </c>
+      <c r="G8">
+        <v>4.7028216930158093</v>
+      </c>
+      <c r="H8">
+        <v>41.745047028216931</v>
+      </c>
+      <c r="I8">
+        <v>0.15009005403241951</v>
+      </c>
+      <c r="K8">
+        <v>3.0018010806483891E-2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>3.5071702993647542</v>
+      </c>
+      <c r="W8">
+        <v>41.705656358172618</v>
+      </c>
+      <c r="X8">
+        <v>2.92517783103199</v>
+      </c>
+      <c r="Y8">
+        <v>50.439347255506107</v>
+      </c>
+      <c r="Z8">
+        <v>0.84826353227585682</v>
+      </c>
+      <c r="AB8">
+        <v>0.4983072768077903</v>
+      </c>
+      <c r="AD8">
+        <v>7.6077446840884022E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>135</v>
+      </c>
+      <c r="E9">
+        <v>7.5671358690226622</v>
+      </c>
+      <c r="F9">
+        <v>46.830388339822314</v>
+      </c>
+      <c r="G9">
+        <v>3.773584905660377</v>
+      </c>
+      <c r="H9">
+        <v>41.719077568134168</v>
+      </c>
+      <c r="I9">
+        <v>6.9881201956673647E-2</v>
+      </c>
+      <c r="J9">
+        <v>3.9932115403813508E-2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>4.027433796913698</v>
+      </c>
+      <c r="W9">
+        <v>42.305200990664893</v>
+      </c>
+      <c r="X9">
+        <v>2.4538007239474182</v>
+      </c>
+      <c r="Y9">
+        <v>49.918079634216042</v>
+      </c>
+      <c r="Z9">
+        <v>0.75442941512669082</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0.50676319298914085</v>
+      </c>
+      <c r="AD9">
+        <v>3.4292246142122312E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>136</v>
+      </c>
+      <c r="E10">
+        <v>6.6326530612244898</v>
+      </c>
+      <c r="F10">
+        <v>47.989195678271308</v>
+      </c>
+      <c r="G10">
+        <v>3.3613445378151261</v>
+      </c>
+      <c r="H10">
+        <v>41.926770708283307</v>
+      </c>
+      <c r="I10">
+        <v>8.0032012805122052E-2</v>
+      </c>
+      <c r="K10">
+        <v>1.000400160064026E-2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>3.6128541547822781</v>
+      </c>
+      <c r="W10">
+        <v>39.775622741966153</v>
+      </c>
+      <c r="X10">
+        <v>2.4985738733599541</v>
+      </c>
+      <c r="Y10">
+        <v>52.80471572542308</v>
+      </c>
+      <c r="Z10">
+        <v>0.79102490967864614</v>
+      </c>
+      <c r="AB10">
+        <v>0.46016352918805847</v>
+      </c>
+      <c r="AD10">
+        <v>5.7045065601825443E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>137</v>
+      </c>
+      <c r="E11">
+        <v>3.4882558720639678</v>
+      </c>
+      <c r="F11">
+        <v>50.484757621189402</v>
+      </c>
+      <c r="G11">
+        <v>6.2768615692153924</v>
+      </c>
+      <c r="H11">
+        <v>39.690154922538731</v>
+      </c>
+      <c r="I11">
+        <v>5.9970014992503741E-2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>2.3120286432543611</v>
+      </c>
+      <c r="W11">
+        <v>45.833015921383407</v>
+      </c>
+      <c r="X11">
+        <v>5.5610573626875901</v>
+      </c>
+      <c r="Y11">
+        <v>45.448312638074199</v>
+      </c>
+      <c r="Z11">
+        <v>0.28567075493258171</v>
+      </c>
+      <c r="AB11">
+        <v>0.54086996267235465</v>
+      </c>
+      <c r="AD11">
+        <v>1.9044716995505449E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>138</v>
+      </c>
+      <c r="E12">
+        <v>6.1102236421725236</v>
+      </c>
+      <c r="F12">
+        <v>47.334265175718848</v>
+      </c>
+      <c r="G12">
+        <v>2.146565495207668</v>
+      </c>
+      <c r="H12">
+        <v>44.388977635782751</v>
+      </c>
+      <c r="I12">
+        <v>9.9840255591054309E-3</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>9.9840255591054309E-3</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>3.339545852192765</v>
+      </c>
+      <c r="W12">
+        <v>30.831843596668062</v>
+      </c>
+      <c r="X12">
+        <v>2.1566315469171959</v>
+      </c>
+      <c r="Y12">
+        <v>62.363546460766038</v>
+      </c>
+      <c r="Z12">
+        <v>0.41839412726788638</v>
+      </c>
+      <c r="AA12">
+        <v>3.8035829751626028E-3</v>
+      </c>
+      <c r="AB12">
+        <v>0.71507359933056935</v>
+      </c>
+      <c r="AD12">
+        <v>0.17116123388231719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>139</v>
+      </c>
+      <c r="E13">
+        <v>4.7661870503597124</v>
+      </c>
+      <c r="F13">
+        <v>49.310551558752998</v>
+      </c>
+      <c r="G13">
+        <v>5.8553157474020781</v>
+      </c>
+      <c r="H13">
+        <v>40.037969624300572</v>
+      </c>
+      <c r="I13">
+        <v>1.998401278976818E-2</v>
+      </c>
+      <c r="K13">
+        <v>9.9920063948840919E-3</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>2.6898493380003039</v>
+      </c>
+      <c r="W13">
+        <v>43.151727286562171</v>
+      </c>
+      <c r="X13">
+        <v>5.3416527164815104</v>
+      </c>
+      <c r="Y13">
+        <v>44.696393243037591</v>
+      </c>
+      <c r="Z13">
+        <v>1.8071830771572059</v>
+      </c>
+      <c r="AB13">
+        <v>2.256125399482575</v>
+      </c>
+      <c r="AD13">
+        <v>5.7068939278648603E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>213</v>
+      </c>
+      <c r="E14">
+        <v>5.8870484933147074</v>
+      </c>
+      <c r="F14">
+        <v>48.134104969068048</v>
+      </c>
+      <c r="G14">
+        <v>4.3404510077828782</v>
+      </c>
+      <c r="H14">
+        <v>41.488724805428063</v>
+      </c>
+      <c r="I14">
+        <v>0.1496707244063061</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>6.026021456288519</v>
+      </c>
+      <c r="W14">
+        <v>51.586395800045651</v>
+      </c>
+      <c r="X14">
+        <v>3.283116487864262</v>
+      </c>
+      <c r="Y14">
+        <v>38.40447386441452</v>
+      </c>
+      <c r="Z14">
+        <v>0.52879860001521728</v>
+      </c>
+      <c r="AB14">
+        <v>4.945598417408506E-2</v>
+      </c>
+      <c r="AD14">
+        <v>0.12173780719774779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>214</v>
+      </c>
+      <c r="E15">
+        <v>4.8858310898394652</v>
+      </c>
+      <c r="F15">
+        <v>49.51640243294446</v>
+      </c>
+      <c r="G15">
+        <v>3.489879349885332</v>
+      </c>
+      <c r="H15">
+        <v>42.05803170804667</v>
+      </c>
+      <c r="I15">
+        <v>4.9855419284076177E-2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>3.0952924176743482</v>
+      </c>
+      <c r="W15">
+        <v>44.292341622937101</v>
+      </c>
+      <c r="X15">
+        <v>2.2283063350825159</v>
+      </c>
+      <c r="Y15">
+        <v>50.148300250969648</v>
+      </c>
+      <c r="Z15">
+        <v>0.16351053312038941</v>
+      </c>
+      <c r="AB15">
+        <v>4.9433416989885161E-2</v>
+      </c>
+      <c r="AD15">
+        <v>2.2815423226100841E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>216</v>
+      </c>
+      <c r="E16">
+        <v>3.5275307284900572</v>
+      </c>
+      <c r="F16">
+        <v>56.320575597082048</v>
+      </c>
+      <c r="G16">
+        <v>3.0278804836614368</v>
+      </c>
+      <c r="H16">
+        <v>36.974118117317879</v>
+      </c>
+      <c r="I16">
+        <v>9.9930048965723994E-2</v>
+      </c>
+      <c r="J16">
+        <v>4.9965024482861997E-2</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>2.4508124976214938</v>
+      </c>
+      <c r="W16">
+        <v>45.572173383567367</v>
+      </c>
+      <c r="X16">
+        <v>2.3100049472923092</v>
+      </c>
+      <c r="Y16">
+        <v>49.472923088632641</v>
+      </c>
+      <c r="Z16">
+        <v>8.3723408303839855E-2</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1.902804734178179E-2</v>
+      </c>
+      <c r="AD16">
+        <v>9.1334627240552579E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>217</v>
+      </c>
+      <c r="E17">
+        <v>1.4523237179487181</v>
+      </c>
+      <c r="F17">
+        <v>53.605769230769234</v>
+      </c>
+      <c r="G17">
+        <v>7.8425480769230766</v>
+      </c>
+      <c r="H17">
+        <v>37.009214743589737</v>
+      </c>
+      <c r="I17">
+        <v>5.0080128205128201E-2</v>
+      </c>
+      <c r="J17">
+        <v>4.0064102564102561E-2</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1.427049242712535</v>
+      </c>
+      <c r="W17">
+        <v>49.775477585813228</v>
+      </c>
+      <c r="X17">
+        <v>7.5081817489915519</v>
+      </c>
+      <c r="Y17">
+        <v>41.224598523479713</v>
+      </c>
+      <c r="Z17">
+        <v>4.1860111119567701E-2</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>2.2832787883400561E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>218</v>
+      </c>
+      <c r="E18">
+        <v>3.3516209476309231</v>
+      </c>
+      <c r="F18">
+        <v>47.431421446384043</v>
+      </c>
+      <c r="G18">
+        <v>8.6583541147132159</v>
+      </c>
+      <c r="H18">
+        <v>40.349127182044889</v>
+      </c>
+      <c r="I18">
+        <v>0.20947630922693269</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>2.4032245798159551</v>
+      </c>
+      <c r="W18">
+        <v>40.254011711917251</v>
+      </c>
+      <c r="X18">
+        <v>9.5976880371130893</v>
+      </c>
+      <c r="Y18">
+        <v>47.163282378888127</v>
+      </c>
+      <c r="Z18">
+        <v>0.19773366795954059</v>
+      </c>
+      <c r="AB18">
+        <v>0.26237736710015969</v>
+      </c>
+      <c r="AD18">
+        <v>0.1216822572058712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>219</v>
+      </c>
+      <c r="E19">
+        <v>3.5867719052852429</v>
+      </c>
+      <c r="F19">
+        <v>53.531821360775297</v>
+      </c>
+      <c r="G19">
+        <v>4.8556299330602464</v>
+      </c>
+      <c r="H19">
+        <v>37.90588470376661</v>
+      </c>
+      <c r="I19">
+        <v>0.1198920971125987</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>2.6552038953134511</v>
+      </c>
+      <c r="W19">
+        <v>47.736609860012173</v>
+      </c>
+      <c r="X19">
+        <v>3.9675897748021911</v>
+      </c>
+      <c r="Y19">
+        <v>45.298234936092513</v>
+      </c>
+      <c r="Z19">
+        <v>0.29671332927571509</v>
+      </c>
+      <c r="AB19">
+        <v>4.564820450395618E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>220</v>
+      </c>
+      <c r="E20">
+        <v>3.2315978456014358</v>
+      </c>
+      <c r="F20">
+        <v>50.658288450029922</v>
+      </c>
+      <c r="G20">
+        <v>4.6678635547576297</v>
+      </c>
+      <c r="H20">
+        <v>41.312587273089967</v>
+      </c>
+      <c r="I20">
+        <v>0.1296628765210453</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>2.5364109974521809</v>
+      </c>
+      <c r="W20">
+        <v>48.48081530212572</v>
+      </c>
+      <c r="X20">
+        <v>3.8673612959653192</v>
+      </c>
+      <c r="Y20">
+        <v>44.58303228505153</v>
+      </c>
+      <c r="Z20">
+        <v>0.37646879872228772</v>
+      </c>
+      <c r="AB20">
+        <v>9.5067878465224173E-2</v>
+      </c>
+      <c r="AD20">
+        <v>6.0843442217743467E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>221</v>
+      </c>
+      <c r="E21">
+        <v>2.9347175084847281</v>
+      </c>
+      <c r="F21">
+        <v>52.555400279496908</v>
+      </c>
+      <c r="G21">
+        <v>4.3621481333599519</v>
+      </c>
+      <c r="H21">
+        <v>40.077859852265917</v>
+      </c>
+      <c r="I21">
+        <v>6.9874226392493508E-2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>2.0428348613383038</v>
+      </c>
+      <c r="W21">
+        <v>46.125461254612553</v>
+      </c>
+      <c r="X21">
+        <v>4.0438239433940728</v>
+      </c>
+      <c r="Y21">
+        <v>47.377030471335637</v>
+      </c>
+      <c r="Z21">
+        <v>0.34998288127211169</v>
+      </c>
+      <c r="AB21">
+        <v>3.8041617529577347E-2</v>
+      </c>
+      <c r="AD21">
+        <v>2.2824970517746419E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>222</v>
+      </c>
+      <c r="E22">
+        <v>2.971783069841905</v>
+      </c>
+      <c r="F22">
+        <v>52.071242745647382</v>
+      </c>
+      <c r="G22">
+        <v>6.1837102261356813</v>
+      </c>
+      <c r="H22">
+        <v>38.693215929557731</v>
+      </c>
+      <c r="I22">
+        <v>8.0048028817290368E-2</v>
+      </c>
+      <c r="V22">
+        <v>1.578787187095793</v>
+      </c>
+      <c r="W22">
+        <v>46.986989271855741</v>
+      </c>
+      <c r="X22">
+        <v>5.61135205052119</v>
+      </c>
+      <c r="Y22">
+        <v>45.373963326485587</v>
+      </c>
+      <c r="Z22">
+        <v>0.4489081640416952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>223</v>
+      </c>
+      <c r="E23">
+        <v>1.331864610454637</v>
+      </c>
+      <c r="F23">
+        <v>52.032845984378127</v>
+      </c>
+      <c r="G23">
+        <v>6.1686360905267366</v>
+      </c>
+      <c r="H23">
+        <v>40.15621870618866</v>
+      </c>
+      <c r="I23">
+        <v>9.0126176647306225E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.15021029441217709</v>
+      </c>
+      <c r="M23">
+        <v>7.0098137392349297E-2</v>
+      </c>
+      <c r="V23">
+        <v>1.3170416048113891</v>
+      </c>
+      <c r="W23">
+        <v>48.311826729092907</v>
+      </c>
+      <c r="X23">
+        <v>4.9027444710897949</v>
+      </c>
+      <c r="Y23">
+        <v>45.209546648395573</v>
+      </c>
+      <c r="Z23">
+        <v>0.18651745270450309</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>7.2323093905827709E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>224</v>
+      </c>
+      <c r="E24">
+        <v>2.108313349320543</v>
+      </c>
+      <c r="F24">
+        <v>52.917665867306162</v>
+      </c>
+      <c r="G24">
+        <v>5.1858513189448434</v>
+      </c>
+      <c r="H24">
+        <v>39.698241406874502</v>
+      </c>
+      <c r="I24">
+        <v>5.9952038369304551E-2</v>
+      </c>
+      <c r="J24">
+        <v>1.998401278976818E-2</v>
+      </c>
+      <c r="K24">
+        <v>9.9920063948840919E-3</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>1.60958904109589</v>
+      </c>
+      <c r="W24">
+        <v>49.467275494672762</v>
+      </c>
+      <c r="X24">
+        <v>5.3805175038051756</v>
+      </c>
+      <c r="Y24">
+        <v>43.321917808219183</v>
+      </c>
+      <c r="Z24">
+        <v>0.15220700152207001</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>4.1856925418569252E-2</v>
+      </c>
+      <c r="AD24">
+        <v>2.6636225266362251E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>140</v>
+      </c>
+      <c r="D25">
+        <v>0.19972039145196729</v>
+      </c>
+      <c r="E25">
+        <v>8.3782704214100256</v>
+      </c>
+      <c r="F25">
+        <v>47.483523067705207</v>
+      </c>
+      <c r="G25">
+        <v>0.19972039145196729</v>
+      </c>
+      <c r="H25">
+        <v>41.761533852606362</v>
+      </c>
+      <c r="I25">
+        <v>0.19972039145196729</v>
+      </c>
+      <c r="J25">
+        <v>1.557819053325344</v>
+      </c>
+      <c r="K25">
+        <v>9.9860195725983616E-3</v>
+      </c>
+      <c r="M25">
+        <v>4.9930097862991817E-2</v>
+      </c>
+      <c r="N25">
+        <v>0.15977631316157381</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>1.720070020549509</v>
+      </c>
+      <c r="W25">
+        <v>14.24385417459472</v>
+      </c>
+      <c r="X25">
+        <v>0.45665575766801131</v>
+      </c>
+      <c r="Y25">
+        <v>81.631022147804245</v>
+      </c>
+      <c r="Z25">
+        <v>1.2063322931729961</v>
+      </c>
+      <c r="AA25">
+        <v>1.1416393941700281E-2</v>
+      </c>
+      <c r="AB25">
+        <v>0.34249181825100838</v>
+      </c>
+      <c r="AD25">
+        <v>0.31204810107314102</v>
+      </c>
+      <c r="AE25">
+        <v>7.6109292944668547E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>141</v>
+      </c>
+      <c r="D26">
+        <v>0.63012602520504102</v>
+      </c>
+      <c r="E26">
+        <v>8.5417083416683326</v>
+      </c>
+      <c r="F26">
+        <v>48.599719943988802</v>
+      </c>
+      <c r="G26">
+        <v>0.54010802160432081</v>
+      </c>
+      <c r="H26">
+        <v>38.947789557911577</v>
+      </c>
+      <c r="I26">
+        <v>0.26005201040208042</v>
+      </c>
+      <c r="J26">
+        <v>2.210442088417683</v>
+      </c>
+      <c r="K26">
+        <v>3.0006001200240051E-2</v>
+      </c>
+      <c r="M26">
+        <v>0.1000200040008002</v>
+      </c>
+      <c r="N26">
+        <v>0.13002600520104021</v>
+      </c>
+      <c r="O26">
+        <v>1.000200040008002E-2</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1.564403166869671</v>
+      </c>
+      <c r="W26">
+        <v>17.40636419001218</v>
+      </c>
+      <c r="X26">
+        <v>0.47198538367844101</v>
+      </c>
+      <c r="Y26">
+        <v>78.532277710109625</v>
+      </c>
+      <c r="Z26">
+        <v>1.6253045066991469</v>
+      </c>
+      <c r="AA26">
+        <v>4.5676004872107177E-2</v>
+      </c>
+      <c r="AB26">
+        <v>0.30070036540803902</v>
+      </c>
+      <c r="AD26">
+        <v>3.8063337393422652E-3</v>
+      </c>
+      <c r="AE26">
+        <v>4.9482338611449447E-2</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>142</v>
+      </c>
+      <c r="D27">
+        <v>0.56960127910462677</v>
+      </c>
+      <c r="E27">
+        <v>7.5347256920155896</v>
+      </c>
+      <c r="F27">
+        <v>45.268312181472972</v>
+      </c>
+      <c r="G27">
+        <v>0.21984610772459279</v>
+      </c>
+      <c r="H27">
+        <v>43.639452383331673</v>
+      </c>
+      <c r="I27">
+        <v>0.20985310282802039</v>
+      </c>
+      <c r="J27">
+        <v>2.0185869891076251</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>8.9937044069151595E-2</v>
+      </c>
+      <c r="N27">
+        <v>0.44968522034575797</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>1.739626950894557</v>
+      </c>
+      <c r="W27">
+        <v>15.10087552341073</v>
+      </c>
+      <c r="X27">
+        <v>0.43776170536733922</v>
+      </c>
+      <c r="Y27">
+        <v>80.643319375713745</v>
+      </c>
+      <c r="Z27">
+        <v>1.282832127902551</v>
+      </c>
+      <c r="AA27">
+        <v>6.4712599923867534E-2</v>
+      </c>
+      <c r="AB27">
+        <v>0.44537495241720593</v>
+      </c>
+      <c r="AD27">
+        <v>0.22839741149600301</v>
+      </c>
+      <c r="AE27">
+        <v>5.709935287400076E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>143</v>
+      </c>
+      <c r="D28">
+        <v>0.37</v>
+      </c>
+      <c r="E28">
+        <v>9.93</v>
+      </c>
+      <c r="F28">
+        <v>48.06</v>
+      </c>
+      <c r="G28">
+        <v>0.12</v>
+      </c>
+      <c r="H28">
+        <v>38.869999999999997</v>
+      </c>
+      <c r="I28">
+        <v>0.02</v>
+      </c>
+      <c r="J28">
+        <v>2.27</v>
+      </c>
+      <c r="K28">
+        <v>0.02</v>
+      </c>
+      <c r="M28">
+        <v>0.05</v>
+      </c>
+      <c r="N28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>2.3212451006507089</v>
+      </c>
+      <c r="W28">
+        <v>16.9945583926329</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>78.401004604437006</v>
+      </c>
+      <c r="Z28">
+        <v>1.4079683397389551</v>
+      </c>
+      <c r="AA28">
+        <v>3.8053198371323108E-2</v>
+      </c>
+      <c r="AB28">
+        <v>0.56699265573271429</v>
+      </c>
+      <c r="AD28">
+        <v>0.26256706876212949</v>
+      </c>
+      <c r="AE28">
+        <v>7.6106396742646213E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29">
+        <v>144</v>
+      </c>
+      <c r="D29">
+        <v>0.67046932852997099</v>
+      </c>
+      <c r="E29">
+        <v>10.817572300610429</v>
+      </c>
+      <c r="F29">
+        <v>45.021515060542377</v>
+      </c>
+      <c r="G29">
+        <v>0.40028019613729598</v>
+      </c>
+      <c r="H29">
+        <v>40.848594015811067</v>
+      </c>
+      <c r="I29">
+        <v>4.0028019613729607E-2</v>
+      </c>
+      <c r="J29">
+        <v>1.931351946362454</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0.100070049034324</v>
+      </c>
+      <c r="N29">
+        <v>0.17011908335835091</v>
+      </c>
+      <c r="U29">
+        <v>1.141465641884179E-2</v>
+      </c>
+      <c r="V29">
+        <v>4.6305456205768207</v>
+      </c>
+      <c r="W29">
+        <v>24.461608705577959</v>
+      </c>
+      <c r="X29">
+        <v>8.7512365877787074E-2</v>
+      </c>
+      <c r="Y29">
+        <v>69.773989802906939</v>
+      </c>
+      <c r="Z29">
+        <v>0.54029373715851148</v>
+      </c>
+      <c r="AA29">
+        <v>1.5219541891789061E-2</v>
+      </c>
+      <c r="AB29">
+        <v>0.16361007533673241</v>
+      </c>
+      <c r="AD29">
+        <v>0.27014686857925568</v>
+      </c>
+      <c r="AE29">
+        <v>4.5658625675367173E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30">
+        <v>145</v>
+      </c>
+      <c r="D30">
+        <v>0.15015015015015021</v>
+      </c>
+      <c r="E30">
+        <v>8.5985985985985991</v>
+      </c>
+      <c r="F30">
+        <v>47.437437437437438</v>
+      </c>
+      <c r="G30">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="H30">
+        <v>41.941941941941941</v>
+      </c>
+      <c r="I30">
+        <v>4.004004004004004E-2</v>
+      </c>
+      <c r="J30">
+        <v>1.491491491491491</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>4.004004004004004E-2</v>
+      </c>
+      <c r="N30">
+        <v>0.10010010010010011</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>3.0178483084065908</v>
+      </c>
+      <c r="W30">
+        <v>31.240248125737331</v>
+      </c>
+      <c r="X30">
+        <v>1.902804734178179E-2</v>
+      </c>
+      <c r="Y30">
+        <v>63.858126879019672</v>
+      </c>
+      <c r="Z30">
+        <v>1.038931384861286</v>
+      </c>
+      <c r="AA30">
+        <v>1.5222437873425429E-2</v>
+      </c>
+      <c r="AB30">
+        <v>0.41100582258248652</v>
+      </c>
+      <c r="AD30">
+        <v>0.3957833847090611</v>
+      </c>
+      <c r="AE30">
+        <v>3.8056094683563569E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>146</v>
+      </c>
+      <c r="D31">
+        <v>0.66973210715713716</v>
+      </c>
+      <c r="E31">
+        <v>8.7764894042383048</v>
+      </c>
+      <c r="F31">
+        <v>48.470611755297881</v>
+      </c>
+      <c r="G31">
+        <v>0.11995201919232309</v>
+      </c>
+      <c r="H31">
+        <v>37.634946021591361</v>
+      </c>
+      <c r="I31">
+        <v>1.999200319872051E-2</v>
+      </c>
+      <c r="J31">
+        <v>3.7485005997600962</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>8.99640143942423E-2</v>
+      </c>
+      <c r="N31">
+        <v>0.4598160735705718</v>
+      </c>
+      <c r="O31">
+        <v>9.9960015993602568E-3</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>2.1045020360010649</v>
+      </c>
+      <c r="W31">
+        <v>16.699014347147699</v>
+      </c>
+      <c r="X31">
+        <v>0.35772729002549758</v>
+      </c>
+      <c r="Y31">
+        <v>78.738059900293038</v>
+      </c>
+      <c r="Z31">
+        <v>1.4309091601019901</v>
+      </c>
+      <c r="AA31">
+        <v>3.8056094683563572E-2</v>
+      </c>
+      <c r="AB31">
+        <v>0.27400388172165768</v>
+      </c>
+      <c r="AD31">
+        <v>0.28922631959508321</v>
+      </c>
+      <c r="AE31">
+        <v>6.8500970430414435E-2</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>147</v>
+      </c>
+      <c r="D32">
+        <v>1.348381941669996</v>
+      </c>
+      <c r="E32">
+        <v>7.820615261685977</v>
+      </c>
+      <c r="F32">
+        <v>44.017179384738313</v>
+      </c>
+      <c r="G32">
+        <v>0.81901717938473828</v>
+      </c>
+      <c r="H32">
+        <v>39.552536955653217</v>
+      </c>
+      <c r="I32">
+        <v>0.12984418697562919</v>
+      </c>
+      <c r="J32">
+        <v>5.0838993208150214</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0.1098681582101478</v>
+      </c>
+      <c r="N32">
+        <v>1.1186576108669599</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>2.3619351894112279</v>
+      </c>
+      <c r="W32">
+        <v>17.948425376540388</v>
+      </c>
+      <c r="X32">
+        <v>0.49064354176175262</v>
+      </c>
+      <c r="Y32">
+        <v>77.042446371519858</v>
+      </c>
+      <c r="Z32">
+        <v>1.342613722805416</v>
+      </c>
+      <c r="AA32">
+        <v>5.7051574623459611E-2</v>
+      </c>
+      <c r="AB32">
+        <v>0.29666818804199002</v>
+      </c>
+      <c r="AD32">
+        <v>0.31948881789137379</v>
+      </c>
+      <c r="AE32">
+        <v>0.1407272174045337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>148</v>
+      </c>
+      <c r="D33">
+        <v>0.61036621973183913</v>
+      </c>
+      <c r="E33">
+        <v>9.0854512707624568</v>
+      </c>
+      <c r="F33">
+        <v>45.697418451070639</v>
+      </c>
+      <c r="G33">
+        <v>0.75045027016209731</v>
+      </c>
+      <c r="H33">
+        <v>39.853912347408453</v>
+      </c>
+      <c r="I33">
+        <v>0.48028817290374232</v>
+      </c>
+      <c r="J33">
+        <v>3.1518911346808092</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0.12007204322593561</v>
+      </c>
+      <c r="N33">
+        <v>0.25015009005403238</v>
+      </c>
+      <c r="U33">
+        <v>2.2832787883400561E-2</v>
+      </c>
+      <c r="V33">
+        <v>2.7779891924804021</v>
+      </c>
+      <c r="W33">
+        <v>20.066215084861859</v>
+      </c>
+      <c r="X33">
+        <v>0.36151914148717562</v>
+      </c>
+      <c r="Y33">
+        <v>75.180759570743589</v>
+      </c>
+      <c r="Z33">
+        <v>1.0388918486947261</v>
+      </c>
+      <c r="AA33">
+        <v>4.5665575766801129E-2</v>
+      </c>
+      <c r="AB33">
+        <v>6.8498363650201691E-2</v>
+      </c>
+      <c r="AD33">
+        <v>0.37293553542887592</v>
+      </c>
+      <c r="AE33">
+        <v>6.4692899002968263E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34">
+        <v>149</v>
+      </c>
+      <c r="D34">
+        <v>1.4284287283987609</v>
+      </c>
+      <c r="E34">
+        <v>9.5794625911497366</v>
+      </c>
+      <c r="F34">
+        <v>43.182499250824087</v>
+      </c>
+      <c r="G34">
+        <v>0.51942862850864047</v>
+      </c>
+      <c r="H34">
+        <v>41.714114474078507</v>
+      </c>
+      <c r="I34">
+        <v>0.1098791329537509</v>
+      </c>
+      <c r="J34">
+        <v>2.9967036260113868</v>
+      </c>
+      <c r="K34">
+        <v>9.9890120867046246E-3</v>
+      </c>
+      <c r="L34">
+        <v>1.9978024173409249E-2</v>
+      </c>
+      <c r="M34">
+        <v>9.9890120867046253E-2</v>
+      </c>
+      <c r="N34">
+        <v>0.31964838677454799</v>
+      </c>
+      <c r="O34">
+        <v>1.9978024173409249E-2</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>2.5899444740244921</v>
+      </c>
+      <c r="W34">
+        <v>17.467863390887651</v>
+      </c>
+      <c r="X34">
+        <v>0.31946451661976122</v>
+      </c>
+      <c r="Y34">
+        <v>77.816231839963493</v>
+      </c>
+      <c r="Z34">
+        <v>1.1599604472503231</v>
+      </c>
+      <c r="AA34">
+        <v>6.0850384118049737E-2</v>
+      </c>
+      <c r="AB34">
+        <v>0.2205826424279303</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0.30044877158287059</v>
+      </c>
+      <c r="AE34">
+        <v>6.4653533125427848E-2</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>150</v>
+      </c>
+      <c r="D35">
+        <v>1.481629792772049</v>
+      </c>
+      <c r="E35">
+        <v>8.8697567324056461</v>
+      </c>
+      <c r="F35">
+        <v>44.228651516668343</v>
+      </c>
+      <c r="G35">
+        <v>0.66072679947942736</v>
+      </c>
+      <c r="H35">
+        <v>41.075182700971069</v>
+      </c>
+      <c r="I35">
+        <v>1.001101211332466E-2</v>
+      </c>
+      <c r="J35">
+        <v>3.1334467914706181</v>
+      </c>
+      <c r="K35">
+        <v>1.001101211332466E-2</v>
+      </c>
+      <c r="M35">
+        <v>0.13014315747322061</v>
+      </c>
+      <c r="N35">
+        <v>0.40044048453298631</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>2.877697841726619</v>
+      </c>
+      <c r="W35">
+        <v>19.89646378135587</v>
+      </c>
+      <c r="X35">
+        <v>0.43013208480834381</v>
+      </c>
+      <c r="Y35">
+        <v>74.62220699630771</v>
+      </c>
+      <c r="Z35">
+        <v>1.0848464085874161</v>
+      </c>
+      <c r="AA35">
+        <v>4.9484222146092653E-2</v>
+      </c>
+      <c r="AB35">
+        <v>0.54051996498039656</v>
+      </c>
+      <c r="AD35">
+        <v>0.38826081991549621</v>
+      </c>
+      <c r="AE35">
+        <v>0.1103878801720528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>151</v>
+      </c>
+      <c r="D36">
+        <v>0.95952023988005986</v>
+      </c>
+      <c r="E36">
+        <v>9.255372313843079</v>
+      </c>
+      <c r="F36">
+        <v>45.537231384307837</v>
+      </c>
+      <c r="G36">
+        <v>0.1299350324837581</v>
+      </c>
+      <c r="H36">
+        <v>39.710144927536227</v>
+      </c>
+      <c r="I36">
+        <v>0.1799100449775112</v>
+      </c>
+      <c r="J36">
+        <v>3.838080959520239</v>
+      </c>
+      <c r="M36">
+        <v>9.9950024987506242E-2</v>
+      </c>
+      <c r="N36">
+        <v>0.28985507246376813</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>2.397260273972603</v>
+      </c>
+      <c r="W36">
+        <v>17.12328767123288</v>
+      </c>
+      <c r="X36">
+        <v>0.50989345509893458</v>
+      </c>
+      <c r="Y36">
+        <v>78.86986301369862</v>
+      </c>
+      <c r="Z36">
+        <v>0.43378995433789957</v>
+      </c>
+      <c r="AA36">
+        <v>6.8493150684931503E-2</v>
+      </c>
+      <c r="AD36">
+        <v>0.47184170471841708</v>
+      </c>
+      <c r="AE36">
+        <v>0.12557077625570781</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>176</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>13.54967548676985</v>
+      </c>
+      <c r="F37">
+        <v>40.049925112331501</v>
+      </c>
+      <c r="G37">
+        <v>1.0783824263604589</v>
+      </c>
+      <c r="H37">
+        <v>43.614578132800787</v>
+      </c>
+      <c r="I37">
+        <v>2.995506739890165E-2</v>
+      </c>
+      <c r="J37">
+        <v>1.577633549675487</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>9.9850224663005499E-2</v>
+      </c>
+      <c r="U37">
+        <v>7.6086129498592406E-3</v>
+      </c>
+      <c r="V37">
+        <v>5.4629840979989348</v>
+      </c>
+      <c r="W37">
+        <v>14.056912424864951</v>
+      </c>
+      <c r="X37">
+        <v>0.77988282736057213</v>
+      </c>
+      <c r="Y37">
+        <v>77.957848284257778</v>
+      </c>
+      <c r="Z37">
+        <v>1.0195541352811379</v>
+      </c>
+      <c r="AA37">
+        <v>1.1412919424788859E-2</v>
+      </c>
+      <c r="AB37">
+        <v>0.61629764893859851</v>
+      </c>
+      <c r="AD37">
+        <v>6.4673210073803541E-2</v>
+      </c>
+      <c r="AE37">
+        <v>2.2825838849577718E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>177</v>
+      </c>
+      <c r="D38">
+        <v>0.67979606118164548</v>
+      </c>
+      <c r="E38">
+        <v>11.31660501849445</v>
+      </c>
+      <c r="F38">
+        <v>41.147655703289018</v>
+      </c>
+      <c r="G38">
+        <v>0.70978706388083579</v>
+      </c>
+      <c r="H38">
+        <v>42.81715485354394</v>
+      </c>
+      <c r="I38">
+        <v>4.9985004498650412E-2</v>
+      </c>
+      <c r="J38">
+        <v>2.919124262721184</v>
+      </c>
+      <c r="K38">
+        <v>9.997000899730081E-3</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0.34989503149055279</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>3.639198387648781</v>
+      </c>
+      <c r="W38">
+        <v>12.62881697532038</v>
+      </c>
+      <c r="X38">
+        <v>0.45632581663307598</v>
+      </c>
+      <c r="Y38">
+        <v>81.674715747043393</v>
+      </c>
+      <c r="Z38">
+        <v>1.258698710879568</v>
+      </c>
+      <c r="AA38">
+        <v>6.0843442217743467E-2</v>
+      </c>
+      <c r="AB38">
+        <v>0.15591132068296759</v>
+      </c>
+      <c r="AD38">
+        <v>5.3238011940525527E-2</v>
+      </c>
+      <c r="AE38">
+        <v>7.2251587633570369E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>178</v>
+      </c>
+      <c r="D39">
+        <v>0.18988606835898461</v>
+      </c>
+      <c r="E39">
+        <v>14.531281231261239</v>
+      </c>
+      <c r="F39">
+        <v>40.095942434539268</v>
+      </c>
+      <c r="G39">
+        <v>0.59964021587047778</v>
+      </c>
+      <c r="H39">
+        <v>41.485108934639207</v>
+      </c>
+      <c r="I39">
+        <v>4.9970017989206472E-2</v>
+      </c>
+      <c r="J39">
+        <v>2.4685188886668001</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0.57965220867479506</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>3.0144817073170729</v>
+      </c>
+      <c r="W39">
+        <v>10.16006097560976</v>
+      </c>
+      <c r="X39">
+        <v>0.91082317073170727</v>
+      </c>
+      <c r="Y39">
+        <v>84.397865853658544</v>
+      </c>
+      <c r="Z39">
+        <v>1.078506097560975</v>
+      </c>
+      <c r="AA39">
+        <v>4.9542682926829271E-2</v>
+      </c>
+      <c r="AB39">
+        <v>0.1638719512195122</v>
+      </c>
+      <c r="AD39">
+        <v>3.8109756097560968E-2</v>
+      </c>
+      <c r="AE39">
+        <v>0.18673780487804881</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>179</v>
+      </c>
+      <c r="D40">
+        <v>0.32996700329966999</v>
+      </c>
+      <c r="E40">
+        <v>17.028297170282968</v>
+      </c>
+      <c r="F40">
+        <v>36.916308369163083</v>
+      </c>
+      <c r="G40">
+        <v>9.9990000999900016E-3</v>
+      </c>
+      <c r="H40">
+        <v>41.785821417858223</v>
+      </c>
+      <c r="I40">
+        <v>8.9991000899910009E-2</v>
+      </c>
+      <c r="J40">
+        <v>3.2296770322967698</v>
+      </c>
+      <c r="K40">
+        <v>9.9990000999900016E-3</v>
+      </c>
+      <c r="M40">
+        <v>2.999700029997E-2</v>
+      </c>
+      <c r="N40">
+        <v>0.56994300569943013</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>5.0831335844462204</v>
+      </c>
+      <c r="W40">
+        <v>12.19038922497432</v>
+      </c>
+      <c r="X40">
+        <v>0.75714340067724384</v>
+      </c>
+      <c r="Y40">
+        <v>80.272419434615529</v>
+      </c>
+      <c r="Z40">
+        <v>1.091960582886276</v>
+      </c>
+      <c r="AA40">
+        <v>0.14838488756991211</v>
+      </c>
+      <c r="AB40">
+        <v>0.22067496100140771</v>
+      </c>
+      <c r="AD40">
+        <v>3.0437925655366588E-2</v>
+      </c>
+      <c r="AE40">
+        <v>0.20545599817372451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41">
+        <v>180</v>
+      </c>
+      <c r="D41">
+        <v>1.192026444956426</v>
+      </c>
+      <c r="E41">
+        <v>11.179004307322449</v>
+      </c>
+      <c r="F41">
+        <v>42.091555644595807</v>
+      </c>
+      <c r="G41">
+        <v>0.63107282380046081</v>
+      </c>
+      <c r="H41">
+        <v>40.63908644695983</v>
+      </c>
+      <c r="I41">
+        <v>2.003405789842733E-2</v>
+      </c>
+      <c r="J41">
+        <v>3.876590203345688</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0.37063007112090551</v>
+      </c>
+      <c r="U41">
+        <v>3.8061888630913868E-3</v>
+      </c>
+      <c r="V41">
+        <v>4.4037605145967342</v>
+      </c>
+      <c r="W41">
+        <v>18.433372663951591</v>
+      </c>
+      <c r="X41">
+        <v>0.29307654245803683</v>
+      </c>
+      <c r="Y41">
+        <v>74.936246336543221</v>
+      </c>
+      <c r="Z41">
+        <v>1.621436455676931</v>
+      </c>
+      <c r="AA41">
+        <v>8.37361549880105E-2</v>
+      </c>
+      <c r="AB41">
+        <v>4.186807749400525E-2</v>
+      </c>
+      <c r="AD41">
+        <v>5.3286644083279412E-2</v>
+      </c>
+      <c r="AE41">
+        <v>0.12941042134510711</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
+        <v>181</v>
+      </c>
+      <c r="D42">
+        <v>0.55949645319212704</v>
+      </c>
+      <c r="E42">
+        <v>13.248076730942151</v>
+      </c>
+      <c r="F42">
+        <v>41.572584673793592</v>
+      </c>
+      <c r="G42">
+        <v>0.24977520231791389</v>
+      </c>
+      <c r="H42">
+        <v>41.582575681886297</v>
+      </c>
+      <c r="I42">
+        <v>1.9982016185433112E-2</v>
+      </c>
+      <c r="J42">
+        <v>2.577680087920871</v>
+      </c>
+      <c r="K42">
+        <v>1.9982016185433112E-2</v>
+      </c>
+      <c r="N42">
+        <v>0.16984713757618139</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>5.8823529411764701</v>
+      </c>
+      <c r="W42">
+        <v>18.30149912487634</v>
+      </c>
+      <c r="X42">
+        <v>1.0044897648580779</v>
+      </c>
+      <c r="Y42">
+        <v>73.79194886233924</v>
+      </c>
+      <c r="Z42">
+        <v>0.77239175100829471</v>
+      </c>
+      <c r="AA42">
+        <v>8.7512365877787074E-2</v>
+      </c>
+      <c r="AB42">
+        <v>5.7073282094208963E-2</v>
+      </c>
+      <c r="AE42">
+        <v>0.10273190776957609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>182</v>
+      </c>
+      <c r="E43">
+        <v>12.14457348818582</v>
+      </c>
+      <c r="F43">
+        <v>42.87144573488186</v>
+      </c>
+      <c r="G43">
+        <v>0.99118942731277537</v>
+      </c>
+      <c r="H43">
+        <v>41.279535442531042</v>
+      </c>
+      <c r="I43">
+        <v>6.0072086503804557E-2</v>
+      </c>
+      <c r="J43">
+        <v>2.2627152583099721</v>
+      </c>
+      <c r="K43">
+        <v>1.001201441730076E-2</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0.38045654785742888</v>
+      </c>
+      <c r="V43">
+        <v>4.6968370570547711</v>
+      </c>
+      <c r="W43">
+        <v>16.511247288090441</v>
+      </c>
+      <c r="X43">
+        <v>1.008640048719218</v>
+      </c>
+      <c r="Y43">
+        <v>77.010619266928032</v>
+      </c>
+      <c r="Z43">
+        <v>0.57092832946370797</v>
+      </c>
+      <c r="AA43">
+        <v>5.7092832946370797E-2</v>
+      </c>
+      <c r="AB43">
+        <v>1.1418566589274161E-2</v>
+      </c>
+      <c r="AD43">
+        <v>4.186807749400525E-2</v>
+      </c>
+      <c r="AE43">
+        <v>9.1348532714193284E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>183</v>
+      </c>
+      <c r="D44">
+        <v>0.1498800959232614</v>
+      </c>
+      <c r="E44">
+        <v>14.088729016786569</v>
+      </c>
+      <c r="F44">
+        <v>40.977218225419662</v>
+      </c>
+      <c r="G44">
+        <v>1.6686650679456441</v>
+      </c>
+      <c r="H44">
+        <v>39.338529176658668</v>
+      </c>
+      <c r="I44">
+        <v>0.19984012789768191</v>
+      </c>
+      <c r="J44">
+        <v>3.2873701039168668</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0.28976818545163868</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>5.3064331937571376</v>
+      </c>
+      <c r="W44">
+        <v>20.989722116482682</v>
+      </c>
+      <c r="X44">
+        <v>1.6254282451465549</v>
+      </c>
+      <c r="Y44">
+        <v>70.186524552721735</v>
+      </c>
+      <c r="Z44">
+        <v>1.7510468214693571</v>
+      </c>
+      <c r="AA44">
+        <v>5.3292729349067383E-2</v>
+      </c>
+      <c r="AB44">
+        <v>1.5226494099733539E-2</v>
+      </c>
+      <c r="AE44">
+        <v>7.2325846973734301E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>184</v>
+      </c>
+      <c r="E45">
+        <v>14.325758334167579</v>
+      </c>
+      <c r="F45">
+        <v>41.065171688857752</v>
+      </c>
+      <c r="G45">
+        <v>2.002202422664932</v>
+      </c>
+      <c r="H45">
+        <v>39.19311242366603</v>
+      </c>
+      <c r="I45">
+        <v>9.0099109019921922E-2</v>
+      </c>
+      <c r="J45">
+        <v>2.8831714886375019</v>
+      </c>
+      <c r="K45">
+        <v>1.001101211332466E-2</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0.43047352087296031</v>
+      </c>
+      <c r="V45">
+        <v>6.1008563273073264</v>
+      </c>
+      <c r="W45">
+        <v>20.68125594671741</v>
+      </c>
+      <c r="X45">
+        <v>1.7316841103710749</v>
+      </c>
+      <c r="Y45">
+        <v>69.944814462416744</v>
+      </c>
+      <c r="Z45">
+        <v>1.2559467174119889</v>
+      </c>
+      <c r="AA45">
+        <v>5.3282588011417699E-2</v>
+      </c>
+      <c r="AB45">
+        <v>7.6117982873453852E-2</v>
+      </c>
+      <c r="AD45">
+        <v>4.5670789724072312E-2</v>
+      </c>
+      <c r="AE45">
+        <v>0.1103710751665081</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>185</v>
+      </c>
+      <c r="D46">
+        <v>0.11997600479904021</v>
+      </c>
+      <c r="E46">
+        <v>12.91741651669666</v>
+      </c>
+      <c r="F46">
+        <v>42.661467706458708</v>
+      </c>
+      <c r="G46">
+        <v>2.9794041191761651</v>
+      </c>
+      <c r="H46">
+        <v>38.962207558488302</v>
+      </c>
+      <c r="I46">
+        <v>9.9980003999200165E-2</v>
+      </c>
+      <c r="J46">
+        <v>2.0395920815836832</v>
+      </c>
+      <c r="K46">
+        <v>3.9992001599680062E-2</v>
+      </c>
+      <c r="L46">
+        <v>1.9996000799840031E-2</v>
+      </c>
+      <c r="M46">
+        <v>9.9980003999200154E-3</v>
+      </c>
+      <c r="N46">
+        <v>0.14997000599880031</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>3.9407182215466459</v>
+      </c>
+      <c r="W46">
+        <v>18.42675280258408</v>
+      </c>
+      <c r="X46">
+        <v>2.4700741022230668</v>
+      </c>
+      <c r="Y46">
+        <v>73.657609728291845</v>
+      </c>
+      <c r="Z46">
+        <v>1.3642409272278171</v>
+      </c>
+      <c r="AA46">
+        <v>2.2800684020520611E-2</v>
+      </c>
+      <c r="AB46">
+        <v>2.2800684020520611E-2</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>4.9401482044461327E-2</v>
+      </c>
+      <c r="AE46">
+        <v>4.5601368041041229E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>186</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>12.32274815258638</v>
+      </c>
+      <c r="F47">
+        <v>41.372079089275019</v>
+      </c>
+      <c r="G47">
+        <v>0.7189934092270821</v>
+      </c>
+      <c r="H47">
+        <v>41.491911324146187</v>
+      </c>
+      <c r="I47">
+        <v>9.9860195725983633E-2</v>
+      </c>
+      <c r="J47">
+        <v>3.5150788895546241</v>
+      </c>
+      <c r="K47">
+        <v>1.997203914519672E-2</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0.45935690033952459</v>
+      </c>
+      <c r="U47">
+        <v>2.2826707247479549E-2</v>
+      </c>
+      <c r="V47">
+        <v>3.7968423054974321</v>
+      </c>
+      <c r="W47">
+        <v>13.1710100817957</v>
+      </c>
+      <c r="X47">
+        <v>0.58208103481072848</v>
+      </c>
+      <c r="Y47">
+        <v>81.091877496671103</v>
+      </c>
+      <c r="Z47">
+        <v>0.93969944835457486</v>
+      </c>
+      <c r="AA47">
+        <v>0.17500475556400991</v>
+      </c>
+      <c r="AB47">
+        <v>5.3262316910785618E-2</v>
+      </c>
+      <c r="AD47">
+        <v>3.0435609663306069E-2</v>
+      </c>
+      <c r="AE47">
+        <v>0.13696024348487729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>152</v>
+      </c>
+      <c r="E48">
+        <v>16.280231860883472</v>
+      </c>
+      <c r="F48">
+        <v>45.012992204677197</v>
+      </c>
+      <c r="G48">
+        <v>37.267639416350193</v>
+      </c>
+      <c r="H48">
+        <v>1.1293224065560661</v>
+      </c>
+      <c r="I48">
+        <v>6.9958025184889069E-2</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0.23985608634819111</v>
+      </c>
+      <c r="V48">
+        <v>4.9111051890204438</v>
+      </c>
+      <c r="W48">
+        <v>20.440095937868811</v>
+      </c>
+      <c r="X48">
+        <v>73.575208436441159</v>
+      </c>
+      <c r="Y48">
+        <v>0.71572695777972362</v>
+      </c>
+      <c r="Z48">
+        <v>9.1369398865496637E-2</v>
+      </c>
+      <c r="AB48">
+        <v>0.1142117485818708</v>
+      </c>
+      <c r="AD48">
+        <v>0.1522823314424944</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>153</v>
+      </c>
+      <c r="E49">
+        <v>14.899598393574299</v>
+      </c>
+      <c r="F49">
+        <v>46.024096385542173</v>
+      </c>
+      <c r="G49">
+        <v>38.122489959839363</v>
+      </c>
+      <c r="H49">
+        <v>0.35140562248995982</v>
+      </c>
+      <c r="I49">
+        <v>0.30120481927710852</v>
+      </c>
+      <c r="J49">
+        <v>1.0040160642570279E-2</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>4.0160642570281117E-2</v>
+      </c>
+      <c r="Q49">
+        <v>0.25100401606425699</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>4.5852359208523588</v>
+      </c>
+      <c r="W49">
+        <v>21.156773211567732</v>
+      </c>
+      <c r="X49">
+        <v>73.173515981735164</v>
+      </c>
+      <c r="Y49">
+        <v>0.72298325722983248</v>
+      </c>
+      <c r="Z49">
+        <v>7.6103500761035003E-2</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0.106544901065449</v>
+      </c>
+      <c r="AD49">
+        <v>0.16742770167427701</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1.1415525114155251E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>154</v>
+      </c>
+      <c r="E50">
+        <v>16.401162208195569</v>
+      </c>
+      <c r="F50">
+        <v>45.817052399559159</v>
+      </c>
+      <c r="G50">
+        <v>36.649634305179838</v>
+      </c>
+      <c r="H50">
+        <v>0.70133253181043986</v>
+      </c>
+      <c r="I50">
+        <v>7.0133253181043978E-2</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0.1502855425308085</v>
+      </c>
+      <c r="R50">
+        <v>0.21039975954313189</v>
+      </c>
+      <c r="V50">
+        <v>4.2335488779003434</v>
+      </c>
+      <c r="W50">
+        <v>21.14872575123621</v>
+      </c>
+      <c r="X50">
+        <v>73.739064282997333</v>
+      </c>
+      <c r="Y50">
+        <v>0.45264359071890448</v>
+      </c>
+      <c r="Z50">
+        <v>0.15595283377710159</v>
+      </c>
+      <c r="AB50">
+        <v>2.662609357170027E-2</v>
+      </c>
+      <c r="AD50">
+        <v>0.24343856979840239</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>155</v>
+      </c>
+      <c r="E51">
+        <v>12.771929824561401</v>
+      </c>
+      <c r="F51">
+        <v>47.558897243107772</v>
+      </c>
+      <c r="G51">
+        <v>37.383458646616539</v>
+      </c>
+      <c r="H51">
+        <v>2.115288220551379</v>
+      </c>
+      <c r="I51">
+        <v>4.0100250626566421E-2</v>
+      </c>
+      <c r="K51">
+        <v>4.0100250626566421E-2</v>
+      </c>
+      <c r="M51">
+        <v>9.0225563909774431E-2</v>
+      </c>
+      <c r="V51">
+        <v>2.923486867148839</v>
+      </c>
+      <c r="W51">
+        <v>19.946707270650929</v>
+      </c>
+      <c r="X51">
+        <v>76.052531404644085</v>
+      </c>
+      <c r="Y51">
+        <v>0.57480015226494097</v>
+      </c>
+      <c r="Z51">
+        <v>0.1751046821469357</v>
+      </c>
+      <c r="AB51">
+        <v>7.9939094023601068E-2</v>
+      </c>
+      <c r="AD51">
+        <v>0.24743052912067001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>156</v>
+      </c>
+      <c r="E52">
+        <v>11.269157567865371</v>
+      </c>
+      <c r="F52">
+        <v>51.377341480516883</v>
+      </c>
+      <c r="G52">
+        <v>35.81087849343885</v>
+      </c>
+      <c r="H52">
+        <v>1.0918561554642889</v>
+      </c>
+      <c r="I52">
+        <v>0.18030652108584591</v>
+      </c>
+      <c r="J52">
+        <v>0.1001702894921366</v>
+      </c>
+      <c r="K52">
+        <v>2.003405789842733E-2</v>
+      </c>
+      <c r="M52">
+        <v>0.1001702894921366</v>
+      </c>
+      <c r="Q52">
+        <v>5.0085144746068323E-2</v>
+      </c>
+      <c r="V52">
+        <v>2.3521351906828039</v>
+      </c>
+      <c r="W52">
+        <v>15.996802923041789</v>
+      </c>
+      <c r="X52">
+        <v>80.170510771104517</v>
+      </c>
+      <c r="Y52">
+        <v>0.78785110755880339</v>
+      </c>
+      <c r="Z52">
+        <v>0.14843571591687599</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0.17507802390195629</v>
+      </c>
+      <c r="AD52">
+        <v>0.3691862677932557</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>157</v>
+      </c>
+      <c r="E53">
+        <v>14.07125700560449</v>
+      </c>
+      <c r="F53">
+        <v>44.59567654123299</v>
+      </c>
+      <c r="G53">
+        <v>38.901120896717373</v>
+      </c>
+      <c r="H53">
+        <v>1.791433146517214</v>
+      </c>
+      <c r="I53">
+        <v>0.20016012810248199</v>
+      </c>
+      <c r="J53">
+        <v>0.11008807045636509</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0.26020816653322659</v>
+      </c>
+      <c r="P53">
+        <v>7.0056044835868692E-2</v>
+      </c>
+      <c r="V53">
+        <v>2.0022077576034412</v>
+      </c>
+      <c r="W53">
+        <v>12.675573826652959</v>
+      </c>
+      <c r="X53">
+        <v>83.483689239084924</v>
+      </c>
+      <c r="Y53">
+        <v>0.5329070077271516</v>
+      </c>
+      <c r="Z53">
+        <v>0.32355068326291347</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0.19413040995774811</v>
+      </c>
+      <c r="AD53">
+        <v>0.78794107571085992</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>158</v>
+      </c>
+      <c r="E54">
+        <v>13.7962037962038</v>
+      </c>
+      <c r="F54">
+        <v>47.762237762237767</v>
+      </c>
+      <c r="G54">
+        <v>37.872127872127869</v>
+      </c>
+      <c r="H54">
+        <v>0.5494505494505495</v>
+      </c>
+      <c r="I54">
+        <v>1.998001998001998E-2</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>4.6047874567111924</v>
+      </c>
+      <c r="W54">
+        <v>25.383415153936909</v>
+      </c>
+      <c r="X54">
+        <v>69.38006621760475</v>
+      </c>
+      <c r="Y54">
+        <v>0.33489363321535942</v>
+      </c>
+      <c r="Z54">
+        <v>3.8056094683563572E-2</v>
+      </c>
+      <c r="AB54">
+        <v>4.9472923088632638E-2</v>
+      </c>
+      <c r="AD54">
+        <v>0.20930852075959969</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>159</v>
+      </c>
+      <c r="E55">
+        <v>14.833733974358969</v>
+      </c>
+      <c r="F55">
+        <v>47.115384615384613</v>
+      </c>
+      <c r="G55">
+        <v>37.510016025641022</v>
+      </c>
+      <c r="H55">
+        <v>0.44070512820512819</v>
+      </c>
+      <c r="I55">
+        <v>9.0144230769230768E-2</v>
+      </c>
+      <c r="K55">
+        <v>1.001602564102564E-2</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>3.2399299474605949</v>
+      </c>
+      <c r="W55">
+        <v>21.76197365415366</v>
+      </c>
+      <c r="X55">
+        <v>74.17954770425645</v>
+      </c>
+      <c r="Y55">
+        <v>0.49112921647757563</v>
+      </c>
+      <c r="Z55">
+        <v>3.0457625828066701E-2</v>
+      </c>
+      <c r="AB55">
+        <v>5.7108048427625069E-2</v>
+      </c>
+      <c r="AD55">
+        <v>0.2398538033960253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>160</v>
+      </c>
+      <c r="E56">
+        <v>13.015746462029099</v>
+      </c>
+      <c r="F56">
+        <v>48.335658760215267</v>
+      </c>
+      <c r="G56">
+        <v>36.037472593183182</v>
+      </c>
+      <c r="H56">
+        <v>1.8835957743671521</v>
+      </c>
+      <c r="I56">
+        <v>0.32888180187362959</v>
+      </c>
+      <c r="J56">
+        <v>0.13952561291608531</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0.25911899541558697</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>4.1726947384451378</v>
+      </c>
+      <c r="W56">
+        <v>24.031066778344631</v>
+      </c>
+      <c r="X56">
+        <v>70.642655904972202</v>
+      </c>
+      <c r="Y56">
+        <v>0.56727328104774233</v>
+      </c>
+      <c r="Z56">
+        <v>0.23223939693900861</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0.20178177111094189</v>
+      </c>
+      <c r="AD56">
+        <v>0.1446737226833168</v>
+      </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>7.6144064570166752E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <v>161</v>
+      </c>
+      <c r="E57">
+        <v>13.585813044785089</v>
+      </c>
+      <c r="F57">
+        <v>48.852820358681491</v>
+      </c>
+      <c r="G57">
+        <v>36.08856827973149</v>
+      </c>
+      <c r="H57">
+        <v>1.1020939785592621</v>
+      </c>
+      <c r="I57">
+        <v>0.13024747019336741</v>
+      </c>
+      <c r="J57">
+        <v>6.0114217012323411E-2</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0.1803426510369702</v>
+      </c>
+      <c r="V57">
+        <v>3.8670878849008492</v>
+      </c>
+      <c r="W57">
+        <v>22.54786282495337</v>
+      </c>
+      <c r="X57">
+        <v>72.694401096182389</v>
+      </c>
+      <c r="Y57">
+        <v>0.61279640695771331</v>
+      </c>
+      <c r="Z57">
+        <v>0.1332166102081985</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>8.37361549880105E-2</v>
+      </c>
+      <c r="AD57">
+        <v>6.0899021809462189E-2</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58">
+        <v>162</v>
+      </c>
+      <c r="E58">
+        <v>10.85977379641677</v>
+      </c>
+      <c r="F58">
+        <v>52.216995295766189</v>
+      </c>
+      <c r="G58">
+        <v>32.949654689220303</v>
+      </c>
+      <c r="H58">
+        <v>3.9035131618456611</v>
+      </c>
+      <c r="I58">
+        <v>7.0063056751075964E-2</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>2.4133074492786721</v>
+      </c>
+      <c r="W58">
+        <v>20.04491644779414</v>
+      </c>
+      <c r="X58">
+        <v>76.354154771420951</v>
+      </c>
+      <c r="Y58">
+        <v>0.33116364051615849</v>
+      </c>
+      <c r="Z58">
+        <v>0.37303490540900608</v>
+      </c>
+      <c r="AB58">
+        <v>0.27406646111682081</v>
+      </c>
+      <c r="AD58">
+        <v>0.20935632446423821</v>
+      </c>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59">
+        <v>163</v>
+      </c>
+      <c r="E59">
+        <v>8.6329494241362053</v>
+      </c>
+      <c r="F59">
+        <v>51.286930395593387</v>
+      </c>
+      <c r="G59">
+        <v>39.20881321982975</v>
+      </c>
+      <c r="H59">
+        <v>0.60090135202804207</v>
+      </c>
+      <c r="I59">
+        <v>0.27040560841261901</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>2.0661314257448349</v>
+      </c>
+      <c r="W59">
+        <v>22.2822571439443</v>
+      </c>
+      <c r="X59">
+        <v>73.239222251816898</v>
+      </c>
+      <c r="Y59">
+        <v>0.58216962824854457</v>
+      </c>
+      <c r="Z59">
+        <v>0.8941821087477646</v>
+      </c>
+      <c r="AB59">
+        <v>0.6202199307484495</v>
+      </c>
+      <c r="AD59">
+        <v>0.31581751074921049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60">
+        <v>164</v>
+      </c>
+      <c r="E60">
+        <v>9.7062067582472675</v>
+      </c>
+      <c r="F60">
+        <v>44.460042113707011</v>
+      </c>
+      <c r="G60">
+        <v>22.631103980748019</v>
+      </c>
+      <c r="H60">
+        <v>22.711320565526929</v>
+      </c>
+      <c r="I60">
+        <v>0.49132658177078109</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>6.5583748620991367</v>
+      </c>
+      <c r="W60">
+        <v>38.117700764636517</v>
+      </c>
+      <c r="X60">
+        <v>38.772016586145241</v>
+      </c>
+      <c r="Y60">
+        <v>16.36550386122418</v>
+      </c>
+      <c r="Z60">
+        <v>0.14075398485943619</v>
+      </c>
+      <c r="AB60">
+        <v>4.564994103549283E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61">
+        <v>165</v>
+      </c>
+      <c r="E61">
+        <v>8.4198961246504194</v>
+      </c>
+      <c r="F61">
+        <v>44.796244506592089</v>
+      </c>
+      <c r="G61">
+        <v>25.88893328006392</v>
+      </c>
+      <c r="H61">
+        <v>20.535357570914901</v>
+      </c>
+      <c r="I61">
+        <v>0.32960447463044351</v>
+      </c>
+      <c r="K61">
+        <v>2.9964043148222132E-2</v>
+      </c>
+      <c r="V61">
+        <v>5.862869760536034</v>
+      </c>
+      <c r="W61">
+        <v>37.830738188601671</v>
+      </c>
+      <c r="X61">
+        <v>42.079415235847257</v>
+      </c>
+      <c r="Y61">
+        <v>13.9376403852743</v>
+      </c>
+      <c r="Z61">
+        <v>0.1979670308752427</v>
+      </c>
+      <c r="AB61">
+        <v>9.1369398865496637E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62">
+        <v>166</v>
+      </c>
+      <c r="D62">
+        <v>1.002004008016032E-2</v>
+      </c>
+      <c r="E62">
+        <v>8.3266533066132276</v>
+      </c>
+      <c r="F62">
+        <v>48.046092184368739</v>
+      </c>
+      <c r="G62">
+        <v>21.172344689378761</v>
+      </c>
+      <c r="H62">
+        <v>21.873747494989981</v>
+      </c>
+      <c r="I62">
+        <v>0.1603206412825651</v>
+      </c>
+      <c r="J62">
+        <v>9.0180360721442893E-2</v>
+      </c>
+      <c r="K62">
+        <v>0.32064128256513019</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>4.448838358872961</v>
+      </c>
+      <c r="W62">
+        <v>36.510893950340318</v>
+      </c>
+      <c r="X62">
+        <v>43.184151488649761</v>
+      </c>
+      <c r="Y62">
+        <v>15.780067683181869</v>
+      </c>
+      <c r="Z62">
+        <v>3.0419407582037341E-2</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>3.4221833529792002E-2</v>
+      </c>
+      <c r="AD62">
+        <v>1.1407277843264001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63">
+        <v>167</v>
+      </c>
+      <c r="E63">
+        <v>7.0363326994294857</v>
+      </c>
+      <c r="F63">
+        <v>47.272545290761677</v>
+      </c>
+      <c r="G63">
+        <v>26.033430087078369</v>
+      </c>
+      <c r="H63">
+        <v>19.537583825442901</v>
+      </c>
+      <c r="I63">
+        <v>9.0081072965669098E-2</v>
+      </c>
+      <c r="K63">
+        <v>3.0027024321889698E-2</v>
+      </c>
+      <c r="V63">
+        <v>3.8474698703569929</v>
+      </c>
+      <c r="W63">
+        <v>37.467209063604912</v>
+      </c>
+      <c r="X63">
+        <v>40.033456259742231</v>
+      </c>
+      <c r="Y63">
+        <v>18.218454168726002</v>
+      </c>
+      <c r="Z63">
+        <v>0.20149792799300459</v>
+      </c>
+      <c r="AB63">
+        <v>0.23191270957685439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64">
+        <v>168</v>
+      </c>
+      <c r="E64">
+        <v>6.7273090763694521</v>
+      </c>
+      <c r="F64">
+        <v>47.461015593762497</v>
+      </c>
+      <c r="G64">
+        <v>21.561375449820069</v>
+      </c>
+      <c r="H64">
+        <v>24.180327868852459</v>
+      </c>
+      <c r="I64">
+        <v>6.9972011195521794E-2</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>2.5875190258751899</v>
+      </c>
+      <c r="W64">
+        <v>33.340943683409442</v>
+      </c>
+      <c r="X64">
+        <v>40.36910197869102</v>
+      </c>
+      <c r="Y64">
+        <v>22.99467275494673</v>
+      </c>
+      <c r="Z64">
+        <v>0.51750380517503802</v>
+      </c>
+      <c r="AB64">
+        <v>0.19025875190258751</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65">
+        <v>169</v>
+      </c>
+      <c r="E65">
+        <v>7.8662930344275424</v>
+      </c>
+      <c r="F65">
+        <v>46.497197758206568</v>
+      </c>
+      <c r="G65">
+        <v>15.70256204963971</v>
+      </c>
+      <c r="H65">
+        <v>29.783827061649319</v>
+      </c>
+      <c r="I65">
+        <v>9.0072057646116893E-2</v>
+      </c>
+      <c r="K65">
+        <v>6.0048038430744591E-2</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>4.2521603410864506</v>
+      </c>
+      <c r="W65">
+        <v>33.210247820625071</v>
+      </c>
+      <c r="X65">
+        <v>29.997335262096009</v>
+      </c>
+      <c r="Y65">
+        <v>29.746088545433778</v>
+      </c>
+      <c r="Z65">
+        <v>1.530320910579009</v>
+      </c>
+      <c r="AB65">
+        <v>1.2143591305340899</v>
+      </c>
+      <c r="AD65">
+        <v>4.9487989645589862E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66">
+        <v>170</v>
+      </c>
+      <c r="E66">
+        <v>7.9903875037548806</v>
+      </c>
+      <c r="F66">
+        <v>43.917092219885852</v>
+      </c>
+      <c r="G66">
+        <v>17.71302693501552</v>
+      </c>
+      <c r="H66">
+        <v>29.87884249524382</v>
+      </c>
+      <c r="I66">
+        <v>0.50065084609992994</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>4.7582823019284168</v>
+      </c>
+      <c r="W66">
+        <v>40.135407553915783</v>
+      </c>
+      <c r="X66">
+        <v>27.918299037693501</v>
+      </c>
+      <c r="Y66">
+        <v>26.689741736715991</v>
+      </c>
+      <c r="Z66">
+        <v>0.28526872313719531</v>
+      </c>
+      <c r="AB66">
+        <v>0.21300064660910581</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67">
+        <v>171</v>
+      </c>
+      <c r="E67">
+        <v>8.1213699178850387</v>
+      </c>
+      <c r="F67">
+        <v>46.044462247146008</v>
+      </c>
+      <c r="G67">
+        <v>19.98798317644702</v>
+      </c>
+      <c r="H67">
+        <v>25.595834167834969</v>
+      </c>
+      <c r="I67">
+        <v>0.25035049068696169</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>4.5241987605976499</v>
+      </c>
+      <c r="W67">
+        <v>40.531498308177767</v>
+      </c>
+      <c r="X67">
+        <v>31.24738622970764</v>
+      </c>
+      <c r="Y67">
+        <v>23.366155951792571</v>
+      </c>
+      <c r="Z67">
+        <v>0.25852564346272289</v>
+      </c>
+      <c r="AB67">
+        <v>7.2235106261643159E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68">
+        <v>172</v>
+      </c>
+      <c r="E68">
+        <v>7.3691598155203524</v>
+      </c>
+      <c r="F68">
+        <v>44.485662723080011</v>
+      </c>
+      <c r="G68">
+        <v>17.926609183878089</v>
+      </c>
+      <c r="H68">
+        <v>30.01804692199719</v>
+      </c>
+      <c r="I68">
+        <v>0.20052135552436329</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>4.2415473652147426</v>
+      </c>
+      <c r="W68">
+        <v>43.241699664940597</v>
+      </c>
+      <c r="X68">
+        <v>24.798202863234849</v>
+      </c>
+      <c r="Y68">
+        <v>27.387298202863239</v>
+      </c>
+      <c r="Z68">
+        <v>0.26271702710935119</v>
+      </c>
+      <c r="AB68">
+        <v>6.8534876637222061E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69">
+        <v>173</v>
+      </c>
+      <c r="E69">
+        <v>7.0001997203914517</v>
+      </c>
+      <c r="F69">
+        <v>45.206710605152793</v>
+      </c>
+      <c r="G69">
+        <v>19.892150988615931</v>
+      </c>
+      <c r="H69">
+        <v>27.581386059516682</v>
+      </c>
+      <c r="I69">
+        <v>0.31955262632314763</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>3.6983431727290039</v>
+      </c>
+      <c r="W69">
+        <v>43.397448105122827</v>
+      </c>
+      <c r="X69">
+        <v>26.570177109122071</v>
+      </c>
+      <c r="Y69">
+        <v>25.907446200723669</v>
+      </c>
+      <c r="Z69">
+        <v>0.23614549609598171</v>
+      </c>
+      <c r="AB69">
+        <v>0.19043991620643691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70">
+        <v>174</v>
+      </c>
+      <c r="E70">
+        <v>8.3083083083083089</v>
+      </c>
+      <c r="F70">
+        <v>46.826826826826832</v>
+      </c>
+      <c r="G70">
+        <v>18.368368368368369</v>
+      </c>
+      <c r="H70">
+        <v>26.386386386386381</v>
+      </c>
+      <c r="I70">
+        <v>0.1101101101101101</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>3.6138161898965309</v>
+      </c>
+      <c r="W70">
+        <v>36.301734631771147</v>
+      </c>
+      <c r="X70">
+        <v>30.7326536822885</v>
+      </c>
+      <c r="Y70">
+        <v>28.99802191113816</v>
+      </c>
+      <c r="Z70">
+        <v>0.13694461351186851</v>
+      </c>
+      <c r="AB70">
+        <v>0.21682897139379179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71">
+        <v>175</v>
+      </c>
+      <c r="E71">
+        <v>9.1408591408591402</v>
+      </c>
+      <c r="F71">
+        <v>29.3006993006993</v>
+      </c>
+      <c r="G71">
+        <v>19.620379620379619</v>
+      </c>
+      <c r="H71">
+        <v>41.818181818181813</v>
+      </c>
+      <c r="I71">
+        <v>0.1098901098901099</v>
+      </c>
+      <c r="K71">
+        <v>9.99000999000999E-3</v>
+      </c>
+      <c r="V71">
+        <v>8.5188144427957226</v>
+      </c>
+      <c r="W71">
+        <v>44.975839896511047</v>
+      </c>
+      <c r="X71">
+        <v>21.907696990450098</v>
+      </c>
+      <c r="Y71">
+        <v>21.401666476429629</v>
+      </c>
+      <c r="Z71">
+        <v>1.38492561731918</v>
+      </c>
+      <c r="AB71">
+        <v>1.8110565764943121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0249F91-CA0C-8042-ABAA-0CECA9511393}">
+  <dimension ref="A1:AK71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
